--- a/LYV.xlsx
+++ b/LYV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C795FD9C-68C5-46A7-A9D0-A694A9B8615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68873DF-C4F5-4D54-9B23-99ABC0E4DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{A30F2EBF-EA7F-4167-A21C-827A3805A5F6}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A30F2EBF-EA7F-4167-A21C-827A3805A5F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,12 +215,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -241,6 +239,20 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -265,16 +277,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,32 +626,33 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>134.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
@@ -648,11 +662,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -660,11 +674,11 @@
         <v>31344.512106500002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
@@ -674,8 +688,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
@@ -686,8 +700,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -708,22 +722,24 @@
       <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.85546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -749,8 +765,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C3" s="4"/>
@@ -766,8 +782,8 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="4"/>
@@ -783,8 +799,8 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="4"/>
@@ -800,8 +816,8 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C6" s="4"/>
@@ -817,8 +833,8 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4"/>
@@ -834,8 +850,8 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="3"/>
@@ -869,7 +885,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
@@ -904,8 +920,8 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3"/>
@@ -939,8 +955,8 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3">
@@ -994,8 +1010,8 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3"/>
@@ -1029,8 +1045,8 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3"/>
@@ -1064,8 +1080,8 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3"/>
@@ -1099,8 +1115,8 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3"/>
@@ -1134,8 +1150,8 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3">
@@ -1189,8 +1205,8 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="3"/>
@@ -1224,8 +1240,8 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="3"/>
@@ -1259,8 +1275,8 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="3"/>
@@ -1294,8 +1310,8 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="3"/>
@@ -1329,8 +1345,8 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3">
@@ -1384,8 +1400,8 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="3"/>
@@ -1419,8 +1435,8 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="3">
@@ -1474,8 +1490,8 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="3"/>
@@ -1509,8 +1525,8 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="3">
@@ -1564,7 +1580,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1592,39 +1608,39 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="2" t="e">
+      <c r="C27" s="7" t="e">
         <f t="shared" ref="C27:H27" si="10">+C25/C28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="2" t="e">
+      <c r="D27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="7">
         <f t="shared" si="10"/>
         <v>2.2793226911412479</v>
       </c>
-      <c r="F27" s="2" t="e">
+      <c r="F27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="2" t="e">
+      <c r="G27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="2" t="e">
+      <c r="H27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <f>+I25/I28</f>
         <v>1.9611779016659197</v>
       </c>
-      <c r="J27" s="2" t="e">
+      <c r="J27" s="7" t="e">
         <f t="shared" ref="J27" si="11">+J25/J28</f>
         <v>#DIV/0!</v>
       </c>
@@ -1647,8 +1663,8 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="3"/>
@@ -1682,7 +1698,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1710,7 +1726,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1738,7 +1754,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1766,7 +1782,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1794,7 +1810,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1822,7 +1838,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1850,7 +1866,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1878,7 +1894,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1906,7 +1922,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1934,7 +1950,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1962,7 +1978,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1990,7 +2006,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2018,7 +2034,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2046,7 +2062,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2074,7 +2090,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2102,7 +2118,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2130,7 +2146,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2158,7 +2174,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2186,7 +2202,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2214,7 +2230,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2242,7 +2258,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2270,7 +2286,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2298,7 +2314,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2326,7 +2342,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2354,7 +2370,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2382,7 +2398,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2410,7 +2426,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2438,7 +2454,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2466,7 +2482,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2494,7 +2510,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2522,7 +2538,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2550,7 +2566,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2578,7 +2594,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2606,7 +2622,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2634,7 +2650,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2662,7 +2678,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2690,7 +2706,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2718,7 +2734,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2746,7 +2762,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2774,7 +2790,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2802,7 +2818,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2830,7 +2846,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2858,7 +2874,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2886,7 +2902,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2914,7 +2930,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2942,7 +2958,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2970,7 +2986,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2998,7 +3014,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -3026,7 +3042,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -3054,7 +3070,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -3082,7 +3098,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -3110,7 +3126,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -3138,7 +3154,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -3166,7 +3182,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -3194,7 +3210,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -3222,7 +3238,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -3250,7 +3266,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -3278,7 +3294,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3306,7 +3322,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3334,7 +3350,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3362,7 +3378,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3390,7 +3406,7 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3418,7 +3434,7 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3446,7 +3462,7 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3474,7 +3490,7 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
     </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3502,7 +3518,7 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
     </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3530,7 +3546,7 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3558,7 +3574,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3586,7 +3602,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3614,7 +3630,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3642,7 +3658,7 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3670,7 +3686,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3698,7 +3714,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3726,7 +3742,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3754,7 +3770,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3782,7 +3798,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3810,7 +3826,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3838,7 +3854,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3866,7 +3882,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3894,7 +3910,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3922,7 +3938,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3950,7 +3966,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3978,7 +3994,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4006,7 +4022,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4034,7 +4050,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4062,7 +4078,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4090,7 +4106,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4118,7 +4134,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4146,7 +4162,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4174,7 +4190,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4202,7 +4218,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4230,7 +4246,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4258,7 +4274,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4286,7 +4302,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4314,7 +4330,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4342,7 +4358,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4370,7 +4386,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4398,7 +4414,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4426,7 +4442,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4454,7 +4470,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4482,7 +4498,7 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
     </row>
-    <row r="129" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4510,7 +4526,7 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
     </row>
-    <row r="130" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4538,7 +4554,7 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
     </row>
-    <row r="131" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -4566,7 +4582,7 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
     </row>
-    <row r="132" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4594,7 +4610,7 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
     </row>
-    <row r="133" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4622,7 +4638,7 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
     </row>
-    <row r="134" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4650,7 +4666,7 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
-    <row r="135" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4678,7 +4694,7 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
     </row>
-    <row r="136" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4706,7 +4722,7 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
-    <row r="137" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4734,7 +4750,7 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
     </row>
-    <row r="138" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4762,7 +4778,7 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
-    <row r="139" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4790,7 +4806,7 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4818,7 +4834,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4846,7 +4862,7 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
     </row>
-    <row r="142" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4874,7 +4890,7 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
     </row>
-    <row r="143" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4902,7 +4918,7 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
     </row>
-    <row r="144" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4930,7 +4946,7 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
     </row>
-    <row r="145" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4958,7 +4974,7 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
     </row>
-    <row r="146" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4986,7 +5002,7 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
     </row>
-    <row r="147" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5014,7 +5030,7 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
     </row>
-    <row r="148" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5042,7 +5058,7 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
     </row>
-    <row r="149" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5070,7 +5086,7 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
     </row>
-    <row r="150" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5098,7 +5114,7 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
     </row>
-    <row r="151" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5126,7 +5142,7 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
     </row>
-    <row r="152" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5154,7 +5170,7 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
     </row>
-    <row r="153" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5182,7 +5198,7 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
     </row>
-    <row r="154" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5210,7 +5226,7 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
     </row>
-    <row r="155" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5238,7 +5254,7 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
     </row>
-    <row r="156" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5266,7 +5282,7 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
     </row>
-    <row r="157" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5294,7 +5310,7 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
     </row>
-    <row r="158" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5322,7 +5338,7 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
     </row>
-    <row r="159" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5350,7 +5366,7 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
     </row>
-    <row r="160" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5378,7 +5394,7 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
     </row>
-    <row r="161" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5406,7 +5422,7 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
     </row>
-    <row r="162" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5434,7 +5450,7 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5462,7 +5478,7 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
     </row>
-    <row r="164" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5490,7 +5506,7 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
     </row>
-    <row r="165" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5518,7 +5534,7 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
     </row>
-    <row r="166" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -5546,7 +5562,7 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
     </row>
-    <row r="167" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -5574,7 +5590,7 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
     </row>
-    <row r="168" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -5602,7 +5618,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
